--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/10/seed1/result_data_KNN.xlsx
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>6.101999999999999</v>
+        <v>6.749</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.010000000000002</v>
+        <v>-7.681999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.206999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.244</v>
+        <v>6.956999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.368</v>
+        <v>-7.896000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>5.130000000000001</v>
+        <v>6.427</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.19</v>
+        <v>-7.917</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
